--- a/data/params.xlsx
+++ b/data/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\lucas\P-projects\geobasins\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lucas\P-projects\hydrocivilpy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0F0125-7AB0-4763-99F8-D090BF160629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8389B6-A2A4-44AD-93E1-43FA0BB03D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2460" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="racional" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="136">
   <si>
     <t>name</t>
   </si>
@@ -424,6 +424,27 @@
   </si>
   <si>
     <t>AT4</t>
+  </si>
+  <si>
+    <t>T140</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>AT13</t>
+  </si>
+  <si>
+    <t>AT15</t>
+  </si>
+  <si>
+    <t>AT16</t>
+  </si>
+  <si>
+    <t>AT17</t>
+  </si>
+  <si>
+    <t>AT18</t>
   </si>
 </sst>
 </file>
@@ -467,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,6 +498,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -761,19 +785,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="18" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="31" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -842,6 +869,24 @@
       <c r="U1" s="3">
         <v>20</v>
       </c>
+      <c r="V1" s="3">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -907,6 +952,24 @@
       <c r="U2" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="V2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -927,8 +990,8 @@
       <c r="F3" s="3">
         <v>140103.522850704</v>
       </c>
-      <c r="G3" s="3">
-        <v>120636.440377776</v>
+      <c r="G3" s="5">
+        <v>120585.231592784</v>
       </c>
       <c r="H3" s="3">
         <v>116535.268946449</v>
@@ -972,12 +1035,25 @@
       <c r="U3" s="4">
         <v>132443.14938824499</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
+      <c r="V3" s="1">
+        <v>133599.52768800099</v>
+      </c>
+      <c r="W3" s="4">
+        <v>126471.977030172</v>
+      </c>
+      <c r="X3" s="4">
+        <v>126216.353621416</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>125785.739691229</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>125154.401339402</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>124592.589272799</v>
+      </c>
+      <c r="AB3" s="5"/>
       <c r="AD3" s="4"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -1000,7 +1076,7 @@
         <v>5389253.6721372101</v>
       </c>
       <c r="G4" s="4">
-        <v>5355491.1355971899</v>
+        <v>5355394.0077974396</v>
       </c>
       <c r="H4" s="4">
         <v>5350773.8447233504</v>
@@ -1044,12 +1120,24 @@
       <c r="U4" s="4">
         <v>5376943.4169302899</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
+      <c r="V4" s="1">
+        <v>5377981.25950801</v>
+      </c>
+      <c r="W4" s="4">
+        <v>5370954.3738814797</v>
+      </c>
+      <c r="X4" s="4">
+        <v>5370901.1904877201</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>5370621.5487721004</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>5370374.5033300798</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>5369947.3046769397</v>
+      </c>
       <c r="AD4" s="4"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
@@ -1072,7 +1160,7 @@
         <v>140060.80784397601</v>
       </c>
       <c r="G5" s="4">
-        <v>120753.17942532799</v>
+        <v>120777.42094491101</v>
       </c>
       <c r="H5" s="4">
         <v>116479.939121195</v>
@@ -1116,12 +1204,24 @@
       <c r="U5" s="4">
         <v>132694.836974732</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
+      <c r="V5" s="1">
+        <v>133450.00246661299</v>
+      </c>
+      <c r="W5" s="4">
+        <v>126679.734692778</v>
+      </c>
+      <c r="X5" s="4">
+        <v>126679.734692778</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>126223.883891308</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>126223.883891308</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>125023.035604188</v>
+      </c>
       <c r="AD5" s="4"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -1144,7 +1244,7 @@
         <v>5388846.98133248</v>
       </c>
       <c r="G6" s="4">
-        <v>5354662.4339857101</v>
+        <v>5354651.0906085698</v>
       </c>
       <c r="H6" s="4">
         <v>5350092.1256367303</v>
@@ -1188,12 +1288,24 @@
       <c r="U6" s="4">
         <v>5376996.5297041303</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
+      <c r="V6" s="1">
+        <v>5378104.97763291</v>
+      </c>
+      <c r="W6" s="4">
+        <v>5369982.6026757201</v>
+      </c>
+      <c r="X6" s="4">
+        <v>5369982.6026757201</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>5368655.7984189596</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>5368655.7984189596</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>5369710.7881578896</v>
+      </c>
       <c r="AD6" s="4"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
@@ -1216,7 +1328,7 @@
         <v>0.779207951658344</v>
       </c>
       <c r="G7" s="4">
-        <v>1.8084707556258801</v>
+        <v>1.8844448638726901</v>
       </c>
       <c r="H7" s="4">
         <v>1.2185138300232701</v>
@@ -1260,12 +1372,24 @@
       <c r="U7" s="4">
         <v>0.41242469670041298</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
+      <c r="V7" s="1">
+        <v>0.122641931568417</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1.36741219795256</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1.36741219795256</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>4.1984997447674699</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>4.1984997447674699</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0.40023087620547698</v>
+      </c>
       <c r="AD7" s="4"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -1288,7 +1412,7 @@
         <v>5.9571315273324998</v>
       </c>
       <c r="G8" s="4">
-        <v>9.4859267165574099</v>
+        <v>10.1269173499934</v>
       </c>
       <c r="H8" s="4">
         <v>6.6354251610691097</v>
@@ -1332,12 +1456,24 @@
       <c r="U8" s="4">
         <v>3.7568617536504401</v>
       </c>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
+      <c r="V8" s="1">
+        <v>2.3991410542222602</v>
+      </c>
+      <c r="W8" s="4">
+        <v>6.9177713107957803</v>
+      </c>
+      <c r="X8" s="4">
+        <v>6.9177713107957803</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>15.0489716557794</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>15.0489716557794</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>3.6616573232476601</v>
+      </c>
       <c r="AD8" s="4"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
@@ -1360,7 +1496,7 @@
         <v>0.40892784504063401</v>
       </c>
       <c r="G9" s="4">
-        <v>0.83688372315868298</v>
+        <v>0.76737389622039698</v>
       </c>
       <c r="H9" s="4">
         <v>0.68396074640625704</v>
@@ -1404,12 +1540,24 @@
       <c r="U9" s="4">
         <v>0.25723065123885802</v>
       </c>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
+      <c r="V9" s="1">
+        <v>0.19407206460590201</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0.99373161504065</v>
+      </c>
+      <c r="X9" s="4">
+        <v>1.0288467260246299</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>2.0139872866786401</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>2.02428740556249</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0.49114570952902098</v>
+      </c>
       <c r="AD9" s="4"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -1432,7 +1580,7 @@
         <v>42</v>
       </c>
       <c r="G10" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="4">
         <v>54</v>
@@ -1476,12 +1624,24 @@
       <c r="U10" s="4">
         <v>42</v>
       </c>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
+      <c r="V10" s="1">
+        <v>42</v>
+      </c>
+      <c r="W10" s="4">
+        <v>48</v>
+      </c>
+      <c r="X10" s="4">
+        <v>48</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>42</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>42</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>45</v>
+      </c>
       <c r="AD10" s="4"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
@@ -1504,7 +1664,7 @@
         <v>116</v>
       </c>
       <c r="G11" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="4">
         <v>77</v>
@@ -1548,12 +1708,24 @@
       <c r="U11" s="4">
         <v>66</v>
       </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
+      <c r="V11" s="1">
+        <v>52</v>
+      </c>
+      <c r="W11" s="4">
+        <v>71</v>
+      </c>
+      <c r="X11" s="4">
+        <v>71</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>87</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>87</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>61</v>
+      </c>
       <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
@@ -1576,7 +1748,7 @@
         <v>58.527492523193303</v>
       </c>
       <c r="G12" s="4">
-        <v>58.149879455566399</v>
+        <v>57.94921875</v>
       </c>
       <c r="H12" s="4">
         <v>63.3596382141113</v>
@@ -1620,12 +1792,24 @@
       <c r="U12" s="4">
         <v>48.149200439453097</v>
       </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
+      <c r="V12" s="1">
+        <v>46.538013458251903</v>
+      </c>
+      <c r="W12" s="4">
+        <v>58.7495918273925</v>
+      </c>
+      <c r="X12" s="4">
+        <v>58.7495918273925</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>64.329940795898395</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>64.329940795898395</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>52.597015380859297</v>
+      </c>
       <c r="AD12" s="4"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
@@ -1692,12 +1876,24 @@
       <c r="U13" s="4">
         <v>46</v>
       </c>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
+      <c r="V13" s="1">
+        <v>46</v>
+      </c>
+      <c r="W13" s="4">
+        <v>58</v>
+      </c>
+      <c r="X13" s="4">
+        <v>58</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>63</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>63</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>53</v>
+      </c>
       <c r="AD13" s="4"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
@@ -1720,7 +1916,7 @@
         <v>74</v>
       </c>
       <c r="G14" s="4">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H14" s="4">
         <v>23</v>
@@ -1764,12 +1960,24 @@
       <c r="U14" s="4">
         <v>24</v>
       </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
+      <c r="V14" s="1">
+        <v>10</v>
+      </c>
+      <c r="W14" s="4">
+        <v>23</v>
+      </c>
+      <c r="X14" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>45</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>45</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>16</v>
+      </c>
       <c r="AD14" s="4"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
@@ -1792,7 +2000,7 @@
         <v>16.527492523193299</v>
       </c>
       <c r="G15" s="4">
-        <v>14.149879455566399</v>
+        <v>11.94921875</v>
       </c>
       <c r="H15" s="4">
         <v>9.3596382141113192</v>
@@ -1836,12 +2044,24 @@
       <c r="U15" s="4">
         <v>6.1492004394531197</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
+      <c r="V15" s="1">
+        <v>4.5380134582519496</v>
+      </c>
+      <c r="W15" s="4">
+        <v>10.7495918273925</v>
+      </c>
+      <c r="X15" s="4">
+        <v>10.7495918273925</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>22.329940795898398</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>22.329940795898398</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>7.5970153808593697</v>
+      </c>
       <c r="AD15" s="4"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
@@ -1908,12 +2128,24 @@
       <c r="U16" s="4">
         <v>3.9964720606803797E-2</v>
       </c>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
+      <c r="V16" s="1">
+        <v>2.9051264747977201E-2</v>
+      </c>
+      <c r="W16" s="4">
+        <v>6.4125798642635304E-2</v>
+      </c>
+      <c r="X16" s="4">
+        <v>6.4125798642635304E-2</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>5.9495534747838898E-2</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>5.9495534747838898E-2</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>6.5478429198265006E-2</v>
+      </c>
       <c r="AD16" s="4"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
@@ -1980,12 +2212,24 @@
       <c r="U17" s="4">
         <v>10.837438423645301</v>
       </c>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
+      <c r="V17" s="1">
+        <v>5.71428571428571</v>
+      </c>
+      <c r="W17" s="4">
+        <v>13.650793650793601</v>
+      </c>
+      <c r="X17" s="4">
+        <v>13.650793650793601</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>13.317711384495199</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>13.317711384495199</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>11.352657004830901</v>
+      </c>
       <c r="AD17" s="4"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
@@ -2052,12 +2296,24 @@
       <c r="U18" s="4">
         <v>19.9507389162561</v>
       </c>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
+      <c r="V18" s="1">
+        <v>17.1428571428571</v>
+      </c>
+      <c r="W18" s="4">
+        <v>10.5396825396825</v>
+      </c>
+      <c r="X18" s="4">
+        <v>10.5396825396825</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>9.6270259714899407</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>9.6270259714899407</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>7.9710144927536204</v>
+      </c>
       <c r="AD18" s="4"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
@@ -2124,12 +2380,24 @@
       <c r="U19" s="4">
         <v>10.5911330049261</v>
       </c>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
+      <c r="V19" s="1">
+        <v>5.71428571428571</v>
+      </c>
+      <c r="W19" s="4">
+        <v>13.2698412698412</v>
+      </c>
+      <c r="X19" s="4">
+        <v>13.2698412698412</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>11.501659832064</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>11.501659832064</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>10.869565217391299</v>
+      </c>
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
@@ -2196,12 +2464,24 @@
       <c r="U20" s="4">
         <v>15.0246305418719</v>
       </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
+      <c r="V20" s="1">
+        <v>18.095238095237999</v>
+      </c>
+      <c r="W20" s="4">
+        <v>10.857142857142801</v>
+      </c>
+      <c r="X20" s="4">
+        <v>10.857142857142801</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>15.9148603788322</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>15.9148603788322</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>15.4589371980676</v>
+      </c>
       <c r="AD20" s="4"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
@@ -2268,12 +2548,24 @@
       <c r="U21" s="4">
         <v>7.8817733990147696</v>
       </c>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
+      <c r="V21" s="1">
+        <v>4.7619047619047601</v>
+      </c>
+      <c r="W21" s="4">
+        <v>16.825396825396801</v>
+      </c>
+      <c r="X21" s="4">
+        <v>16.825396825396801</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>12.3218121460652</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>12.3218121460652</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>12.560386473429899</v>
+      </c>
       <c r="AD21" s="4"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
@@ -2340,12 +2632,24 @@
       <c r="U22" s="4">
         <v>8.8669950738916192</v>
       </c>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
+      <c r="V22" s="1">
+        <v>5.71428571428571</v>
+      </c>
+      <c r="W22" s="4">
+        <v>9.3333333333333304</v>
+      </c>
+      <c r="X22" s="4">
+        <v>9.3333333333333304</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>9.7441905877758206</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>9.7441905877758206</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>12.077294685990299</v>
+      </c>
       <c r="AD22" s="4"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
@@ -2412,12 +2716,24 @@
       <c r="U23" s="4">
         <v>16.5024630541871</v>
       </c>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
+      <c r="V23" s="1">
+        <v>34.285714285714199</v>
+      </c>
+      <c r="W23" s="4">
+        <v>14.603174603174599</v>
+      </c>
+      <c r="X23" s="4">
+        <v>14.603174603174599</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>13.0833821519234</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>13.0833821519234</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>13.768115942028899</v>
+      </c>
       <c r="AD23" s="4"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
@@ -2484,12 +2800,24 @@
       <c r="U24" s="4">
         <v>10.344827586206801</v>
       </c>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
+      <c r="V24" s="1">
+        <v>8.5714285714285694</v>
+      </c>
+      <c r="W24" s="4">
+        <v>10.9206349206349</v>
+      </c>
+      <c r="X24" s="4">
+        <v>10.9206349206349</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>14.489357547354</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>14.489357547354</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>15.9420289855072</v>
+      </c>
       <c r="AD24" s="4"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
@@ -2512,7 +2840,7 @@
         <v>1.4922884502951901</v>
       </c>
       <c r="G25" s="4">
-        <v>2.3709883054445098</v>
+        <v>2.2765879574953201</v>
       </c>
       <c r="H25" s="4">
         <v>1.57690771538023</v>
@@ -2556,12 +2884,24 @@
       <c r="U25" s="4">
         <v>1.16190119836369</v>
       </c>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
+      <c r="V25" s="1">
+        <v>0.37355800388190302</v>
+      </c>
+      <c r="W25" s="4">
+        <v>3.5129831607974999</v>
+      </c>
+      <c r="X25" s="4">
+        <v>3.5129831607974999</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>6.04034313117167</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>6.04034313117167</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>1.1102060079303899</v>
+      </c>
       <c r="AD25" s="4"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
@@ -2584,7 +2924,7 @@
         <v>6.3035913342215304</v>
       </c>
       <c r="G26" s="4">
-        <v>6.6807855092228996</v>
+        <v>6.6141571225056097</v>
       </c>
       <c r="H26" s="4">
         <v>1.29412377317876</v>
@@ -2628,12 +2968,24 @@
       <c r="U26" s="4">
         <v>7.0081318108252404</v>
       </c>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
+      <c r="V26" s="1">
+        <v>3.0459240090613702</v>
+      </c>
+      <c r="W26" s="4">
+        <v>2.5690740261477201</v>
+      </c>
+      <c r="X26" s="4">
+        <v>2.5690740261477201</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>1.4386908415797</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>1.4386908415797</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>2.7739139430122899</v>
+      </c>
       <c r="AD26" s="4"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
@@ -2656,7 +3008,7 @@
         <v>0.34990312427730902</v>
       </c>
       <c r="G27" s="4">
-        <v>0.32170118933397002</v>
+        <v>0.36359220736000702</v>
       </c>
       <c r="H27" s="4">
         <v>0.49002462684157699</v>
@@ -2700,12 +3052,24 @@
       <c r="U27" s="4">
         <v>0.305496517890123</v>
       </c>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
+      <c r="V27" s="1">
+        <v>0.87886645767253602</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0.110801927041511</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0.110801927041511</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.115072331081453</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0.115072331081453</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0.32471581663073901</v>
+      </c>
       <c r="AD27" s="4"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
@@ -2727,9 +3091,7 @@
       <c r="F28" s="4">
         <v>0.38675022381378599</v>
       </c>
-      <c r="G28" s="4">
-        <v>0.259145167500962</v>
-      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4">
         <v>0.277651083238312</v>
       </c>
@@ -2777,7 +3139,6 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
@@ -2795,9 +3156,6 @@
       <c r="F29" s="4">
         <v>0.41629364368845101</v>
       </c>
-      <c r="G29" s="4">
-        <v>0.24451289949942201</v>
-      </c>
       <c r="H29" s="4">
         <v>0.42987457240592902</v>
       </c>
@@ -2845,6 +3203,7 @@
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="G30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="X30" s="4"/>
@@ -2852,7 +3211,6 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
@@ -2872,9 +3230,7 @@
       <c r="F31" s="4">
         <v>5.7296329453894297E-2</v>
       </c>
-      <c r="G31" s="4">
-        <v>0.27339237581825099</v>
-      </c>
+      <c r="G31" s="4"/>
       <c r="H31" s="4">
         <v>0.177309007981755</v>
       </c>
@@ -2920,7 +3276,6 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
@@ -2942,9 +3297,7 @@
       <c r="F32" s="4">
         <v>0.13965980304386699</v>
       </c>
-      <c r="G32" s="4">
-        <v>0.222949557181363</v>
-      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="4">
         <v>0.115165336374002</v>
       </c>
@@ -2992,7 +3345,6 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
@@ -3029,7 +3381,6 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
@@ -3062,7 +3413,6 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
@@ -3095,7 +3445,6 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
@@ -3132,7 +3481,6 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
@@ -3165,7 +3513,6 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
@@ -3177,7 +3524,6 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4">
@@ -3201,8 +3547,6 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
@@ -3214,7 +3558,6 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -3232,8 +3575,6 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
@@ -3245,7 +3586,6 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -3263,8 +3603,6 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
@@ -3276,7 +3614,6 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -3294,8 +3631,6 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
@@ -3307,7 +3642,6 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3325,8 +3659,6 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
@@ -3338,7 +3670,6 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -3356,8 +3687,6 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
@@ -3369,7 +3698,6 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -3387,8 +3715,6 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
@@ -3400,7 +3726,6 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -3418,8 +3743,6 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
@@ -3450,7 +3773,6 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
@@ -3481,7 +3803,6 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
@@ -3512,10 +3833,9 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>79</v>
       </c>
@@ -3524,7 +3844,6 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -3538,31 +3857,31 @@
       <c r="S49" s="4"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>81</v>
       </c>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>83</v>
       </c>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>84</v>
       </c>
@@ -3581,9 +3900,6 @@
       <c r="F54" s="1">
         <v>1</v>
       </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
       <c r="H54" s="1">
         <v>1</v>
       </c>
@@ -3626,8 +3942,11 @@
       <c r="U54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>85</v>
       </c>
@@ -3636,7 +3955,7 @@
       </c>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>86</v>
       </c>
@@ -3651,13 +3970,13 @@
       </c>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>87</v>
       </c>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>88</v>
       </c>
@@ -3676,9 +3995,6 @@
       <c r="F58" s="1">
         <v>0.39355581127733003</v>
       </c>
-      <c r="G58" s="1">
-        <v>0.15674603174603099</v>
-      </c>
       <c r="H58" s="1">
         <v>0.14603409933283901</v>
       </c>
@@ -3722,7 +4038,7 @@
         <v>0.20971302428256</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
@@ -3738,9 +4054,6 @@
       <c r="F59" s="1">
         <v>5.2934407364787099E-2</v>
       </c>
-      <c r="G59" s="1">
-        <v>0.27430555555555503</v>
-      </c>
       <c r="H59" s="1">
         <v>0.182357301704966</v>
       </c>
@@ -3784,7 +4097,7 @@
         <v>0.11037527593818899</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>90</v>
       </c>
@@ -3797,9 +4110,6 @@
       <c r="F60" s="1">
         <v>0.41081703107019502</v>
       </c>
-      <c r="G60" s="1">
-        <v>0.24950396825396801</v>
-      </c>
       <c r="H60" s="1">
         <v>0.42846553002223797</v>
       </c>
@@ -3843,7 +4153,7 @@
         <v>0.55849889624724003</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>91</v>
       </c>
@@ -3862,9 +4172,6 @@
       <c r="F61" s="1">
         <v>7.3647871116225505E-2</v>
       </c>
-      <c r="G61" s="1">
-        <v>0.23164682539682499</v>
-      </c>
       <c r="H61" s="1">
         <v>0.11267605633802801</v>
       </c>
@@ -3908,7 +4215,7 @@
         <v>6.8432671081677707E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>92</v>
       </c>
@@ -3944,16 +4251,13 @@
       </c>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B63" s="1">
         <v>5.7504312823461695E-4</v>
       </c>
-      <c r="G63" s="1">
-        <v>4.96031746031746E-4</v>
-      </c>
       <c r="I63" s="1">
         <v>4.9261083743842296E-3</v>
       </c>
@@ -3967,7 +4271,7 @@
         <v>3.9735099337748297E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>94</v>
       </c>
@@ -4021,9 +4325,6 @@
       <c r="F68" s="1">
         <v>1.15074798619102E-3</v>
       </c>
-      <c r="G68" s="1">
-        <v>8.7301587301587297E-2</v>
-      </c>
       <c r="H68" s="1">
         <v>0.128984432913269</v>
       </c>
@@ -4136,13 +4437,13 @@
       </c>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>111</v>
       </c>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
@@ -4161,8 +4462,8 @@
       <c r="F82" s="1">
         <v>69.647635959373304</v>
       </c>
-      <c r="G82" s="1">
-        <v>78.4933686099494</v>
+      <c r="G82" s="4">
+        <v>78.460189958429197</v>
       </c>
       <c r="H82" s="1">
         <v>80.266544353183406</v>
@@ -4206,8 +4507,27 @@
       <c r="U82" s="1">
         <v>71.424384317717298</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V82" s="1">
+        <v>70.979125385456399</v>
+      </c>
+      <c r="W82" s="1">
+        <v>75.123054571853899</v>
+      </c>
+      <c r="X82" s="1">
+        <v>75.123054571853899</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>75.847237925181702</v>
+      </c>
+      <c r="Z82" s="1">
+        <v>75.847237925181702</v>
+      </c>
+      <c r="AA82" s="1">
+        <v>74.406025980089595</v>
+      </c>
+      <c r="AB82" s="4"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>22</v>
       </c>
@@ -4227,7 +4547,7 @@
         <v>80.574400446884198</v>
       </c>
       <c r="G83" s="1">
-        <v>91.313715013846107</v>
+        <v>91.272056768989401</v>
       </c>
       <c r="H83" s="1">
         <v>93.488969673738495</v>
@@ -4271,8 +4591,26 @@
       <c r="U83" s="1">
         <v>82.682315305816502</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V83" s="1">
+        <v>82.135728635407304</v>
+      </c>
+      <c r="W83" s="4">
+        <v>87.244508803741397</v>
+      </c>
+      <c r="X83" s="4">
+        <v>87.244508803741397</v>
+      </c>
+      <c r="Y83" s="4">
+        <v>88.138257349463203</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>88.138257349463203</v>
+      </c>
+      <c r="AA83" s="4">
+        <v>86.344022632190203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>23</v>
       </c>
@@ -4291,8 +4629,8 @@
       <c r="F84" s="1">
         <v>89.843920509091106</v>
       </c>
-      <c r="G84" s="1">
-        <v>102.280973475295</v>
+      <c r="G84" s="4">
+        <v>102.231491708817</v>
       </c>
       <c r="H84" s="1">
         <v>104.820331699439</v>
@@ -4336,8 +4674,27 @@
       <c r="U84" s="1">
         <v>92.240861638003494</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V84" s="1">
+        <v>91.602462491419899</v>
+      </c>
+      <c r="W84" s="4">
+        <v>97.588780682086195</v>
+      </c>
+      <c r="X84" s="4">
+        <v>97.588780682086195</v>
+      </c>
+      <c r="Y84" s="4">
+        <v>98.636889969862196</v>
+      </c>
+      <c r="Z84" s="4">
+        <v>98.636889969862196</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>96.519003769287195</v>
+      </c>
+      <c r="AB84" s="4"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>24</v>
       </c>
@@ -4356,8 +4713,8 @@
       <c r="F85" s="1">
         <v>100.05441100785001</v>
       </c>
-      <c r="G85" s="1">
-        <v>114.457993703238</v>
+      <c r="G85" s="4">
+        <v>114.399222192203</v>
       </c>
       <c r="H85" s="1">
         <v>117.42281977225799</v>
@@ -4401,8 +4758,27 @@
       <c r="U85" s="1">
         <v>102.778011165552</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V85" s="1">
+        <v>102.03226992339501</v>
+      </c>
+      <c r="W85" s="4">
+        <v>109.047912876806</v>
+      </c>
+      <c r="X85" s="4">
+        <v>109.047912876806</v>
+      </c>
+      <c r="Y85" s="4">
+        <v>110.277224806839</v>
+      </c>
+      <c r="Z85" s="4">
+        <v>110.277224806839</v>
+      </c>
+      <c r="AA85" s="4">
+        <v>107.777090659876</v>
+      </c>
+      <c r="AB85" s="4"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>25</v>
       </c>
@@ -4421,8 +4797,8 @@
       <c r="F86" s="1">
         <v>103.553167791421</v>
       </c>
-      <c r="G86" s="1">
-        <v>118.65386682620699</v>
+      <c r="G86" s="4">
+        <v>118.591748869482</v>
       </c>
       <c r="H86" s="1">
         <v>121.770388388605</v>
@@ -4466,8 +4842,27 @@
       <c r="U86" s="1">
         <v>106.39066151466</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V86" s="1">
+        <v>105.60663572545</v>
+      </c>
+      <c r="W86" s="4">
+        <v>112.99017572706801</v>
+      </c>
+      <c r="X86" s="4">
+        <v>112.99017572706801</v>
+      </c>
+      <c r="Y86" s="4">
+        <v>114.284285287399</v>
+      </c>
+      <c r="Z86" s="4">
+        <v>114.284285287399</v>
+      </c>
+      <c r="AA86" s="4">
+        <v>111.64692467107</v>
+      </c>
+      <c r="AB86" s="4"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>26</v>
       </c>
@@ -4486,8 +4881,8 @@
       <c r="F87" s="1">
         <v>115.11447187053901</v>
       </c>
-      <c r="G87" s="1">
-        <v>132.603534994884</v>
+      <c r="G87" s="4">
+        <v>132.52975986895399</v>
       </c>
       <c r="H87" s="1">
         <v>136.24291235776201</v>
@@ -4531,8 +4926,27 @@
       <c r="U87" s="1">
         <v>118.33531441854601</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V87" s="1">
+        <v>117.419284971114</v>
+      </c>
+      <c r="W87" s="4">
+        <v>126.07410824717</v>
+      </c>
+      <c r="X87" s="4">
+        <v>126.07410824717</v>
+      </c>
+      <c r="Y87" s="4">
+        <v>127.592246272971</v>
+      </c>
+      <c r="Z87" s="4">
+        <v>127.592246272971</v>
+      </c>
+      <c r="AA87" s="4">
+        <v>124.478532890395</v>
+      </c>
+      <c r="AB87" s="4"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>27</v>
       </c>
@@ -4551,8 +4965,8 @@
       <c r="F88" s="1">
         <v>122.38366410862101</v>
       </c>
-      <c r="G88" s="1">
-        <v>141.44157124711199</v>
+      <c r="G88" s="4">
+        <v>141.359989573127</v>
       </c>
       <c r="H88" s="1">
         <v>145.42683616961699</v>
@@ -4596,8 +5010,27 @@
       <c r="U88" s="1">
         <v>125.850985154028</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V88" s="1">
+        <v>124.84759464858099</v>
+      </c>
+      <c r="W88" s="4">
+        <v>134.345917269571</v>
+      </c>
+      <c r="X88" s="4">
+        <v>134.345917269571</v>
+      </c>
+      <c r="Y88" s="4">
+        <v>136.012789350464</v>
+      </c>
+      <c r="Z88" s="4">
+        <v>136.012789350464</v>
+      </c>
+      <c r="AA88" s="4">
+        <v>132.58134893032999</v>
+      </c>
+      <c r="AB88" s="4"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
@@ -4616,8 +5049,8 @@
       <c r="F89" s="1">
         <v>127.777058819532</v>
       </c>
-      <c r="G89" s="1">
-        <v>148.03283093842299</v>
+      <c r="G89" s="4">
+        <v>147.94521530029999</v>
       </c>
       <c r="H89" s="1">
         <v>152.28339188856501</v>
@@ -4661,8 +5094,27 @@
       <c r="U89" s="1">
         <v>131.42995323991701</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V89" s="1">
+        <v>130.359539170641</v>
+      </c>
+      <c r="W89" s="4">
+        <v>140.506047138246</v>
+      </c>
+      <c r="X89" s="4">
+        <v>140.506047138246</v>
+      </c>
+      <c r="Y89" s="4">
+        <v>142.28725772417101</v>
+      </c>
+      <c r="Z89" s="4">
+        <v>142.28725772417101</v>
+      </c>
+      <c r="AA89" s="4">
+        <v>138.61084980228401</v>
+      </c>
+      <c r="AB89" s="4"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -4681,8 +5133,8 @@
       <c r="F90" s="1">
         <v>135.72081108331801</v>
       </c>
-      <c r="G90" s="1">
-        <v>157.79399902767199</v>
+      <c r="G90" s="4">
+        <v>157.69711499777301</v>
       </c>
       <c r="H90" s="1">
         <v>162.44892624748499</v>
@@ -4726,8 +5178,27 @@
       <c r="U90" s="1">
         <v>139.65120363749199</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V90" s="1">
+        <v>138.47860467422001</v>
+      </c>
+      <c r="W90" s="4">
+        <v>149.61496217592699</v>
+      </c>
+      <c r="X90" s="4">
+        <v>149.61496217592699</v>
+      </c>
+      <c r="Y90" s="4">
+        <v>151.57084793941101</v>
+      </c>
+      <c r="Z90" s="4">
+        <v>151.57084793941101</v>
+      </c>
+      <c r="AA90" s="4">
+        <v>147.51910135529801</v>
+      </c>
+      <c r="AB90" s="4"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>30</v>
       </c>
@@ -4746,8 +5217,8 @@
       <c r="F91" s="1">
         <v>141.60569872364701</v>
       </c>
-      <c r="G91" s="1">
-        <v>165.06656840302901</v>
+      <c r="G91" s="4">
+        <v>164.96252063811801</v>
       </c>
       <c r="H91" s="1">
         <v>170.031667694237</v>
@@ -4791,8 +5262,27 @@
       <c r="U91" s="1">
         <v>145.74487136355799</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V91" s="1">
+        <v>144.49387013686999</v>
+      </c>
+      <c r="W91" s="4">
+        <v>156.390930656286</v>
+      </c>
+      <c r="X91" s="4">
+        <v>156.390930656286</v>
+      </c>
+      <c r="Y91" s="4">
+        <v>158.48110649694999</v>
+      </c>
+      <c r="Z91" s="4">
+        <v>158.48110649694999</v>
+      </c>
+      <c r="AA91" s="4">
+        <v>154.139963346</v>
+      </c>
+      <c r="AB91" s="4"/>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>112</v>
       </c>
@@ -4811,7 +5301,7 @@
       <c r="F92" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="4" t="s">
         <v>113</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -4856,8 +5346,27 @@
       <c r="U92" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V92" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W92" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="X92" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y92" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z92" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA92" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB92" s="4"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>114</v>
       </c>
@@ -4876,7 +5385,7 @@
       <c r="F93" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="4" t="s">
         <v>115</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -4921,8 +5430,27 @@
       <c r="U93" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V93" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="X93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB93" s="4"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>122</v>
       </c>
@@ -4941,7 +5469,7 @@
       <c r="F94" s="1">
         <v>0.17</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="4">
         <v>0.14000000000000001</v>
       </c>
       <c r="H94" s="1">
@@ -4986,8 +5514,27 @@
       <c r="U94" s="1">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V94" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="W94" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="X94" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="Y94" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="Z94" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AA94" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="AB94" s="4"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>123</v>
       </c>
@@ -5006,7 +5553,7 @@
       <c r="F95" s="1">
         <v>0.1</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95" s="4">
         <v>0.1</v>
       </c>
       <c r="H95" s="1">
@@ -5051,8 +5598,27 @@
       <c r="U95" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V95" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="W95" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X95" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Y95" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Z95" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AA95" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AB95" s="4"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>124</v>
       </c>
@@ -5071,7 +5637,7 @@
       <c r="F96" s="1">
         <v>0.04</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96" s="4">
         <v>0.04</v>
       </c>
       <c r="H96" s="1">
@@ -5116,8 +5682,27 @@
       <c r="U96" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V96" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="W96" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="X96" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="Y96" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="Z96" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA96" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AB96" s="4"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>125</v>
       </c>
@@ -5136,7 +5721,7 @@
       <c r="F97" s="1">
         <v>0.04</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97" s="4">
         <v>0.04</v>
       </c>
       <c r="H97" s="1">
@@ -5181,8 +5766,27 @@
       <c r="U97" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V97" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="W97" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="X97" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="Y97" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="Z97" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AA97" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AB97" s="4"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>126</v>
       </c>
@@ -5201,7 +5805,7 @@
       <c r="F98" s="1">
         <v>0.35</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98" s="4">
         <v>0.32</v>
       </c>
       <c r="H98" s="1">
@@ -5246,8 +5850,27 @@
       <c r="U98" s="1">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V98" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="W98" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="X98" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="Y98" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="Z98" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="AA98" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="AB98" s="4"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>118</v>
       </c>
@@ -5266,8 +5889,8 @@
       <c r="F99" s="1">
         <v>71.343780517578097</v>
       </c>
-      <c r="G99" s="1">
-        <v>72.452827453613196</v>
+      <c r="G99" s="4">
+        <v>85.845611572265597</v>
       </c>
       <c r="H99" s="1">
         <v>71.714935302734304</v>
@@ -5311,8 +5934,26 @@
       <c r="U99" s="1">
         <v>71.257575988769503</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V99" s="1">
+        <v>86.3428955078125</v>
+      </c>
+      <c r="W99" s="4">
+        <v>85.501602172851506</v>
+      </c>
+      <c r="X99" s="4">
+        <v>85.501602172851506</v>
+      </c>
+      <c r="Y99" s="4">
+        <v>85.287933349609304</v>
+      </c>
+      <c r="Z99" s="4">
+        <v>85.287933349609304</v>
+      </c>
+      <c r="AA99" s="4">
+        <v>85.866638183593693</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>119</v>
       </c>
@@ -5331,8 +5972,8 @@
       <c r="F100" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>41</v>
+      <c r="G100" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>41</v>
@@ -5376,9 +6017,29 @@
       <c r="U100" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="V100" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W100" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="X100" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y100" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z100" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA100" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB100" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
